--- a/Networks/Parte4/Excel/Network16-16.xlsx
+++ b/Networks/Parte4/Excel/Network16-16.xlsx
@@ -525,52 +525,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.68931507308983</v>
+        <v>-55.27265665923049</v>
       </c>
       <c r="C2" t="n">
-        <v>-79.3268474521083</v>
+        <v>-83.07306855921446</v>
       </c>
       <c r="D2" t="n">
-        <v>16.0779918504981</v>
+        <v>-46.73230238238318</v>
       </c>
       <c r="E2" t="n">
-        <v>-87.35761191692706</v>
+        <v>-144.945848490246</v>
       </c>
       <c r="F2" t="n">
-        <v>-24.31642789287548</v>
+        <v>38.77972983670434</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.6609669164664</v>
+        <v>-15.98341999549959</v>
       </c>
       <c r="H2" t="n">
-        <v>-95.690252487549</v>
+        <v>44.10619962928199</v>
       </c>
       <c r="I2" t="n">
-        <v>22.93934847100795</v>
+        <v>30.72944527214661</v>
       </c>
       <c r="J2" t="n">
-        <v>67.32912804617973</v>
+        <v>-26.13500829875975</v>
       </c>
       <c r="K2" t="n">
-        <v>49.36757366089996</v>
+        <v>-85.97684426988462</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.006434087835963</v>
+        <v>-62.90036350655354</v>
       </c>
       <c r="M2" t="n">
-        <v>-46.30619287043648</v>
+        <v>44.21964795917357</v>
       </c>
       <c r="N2" t="n">
-        <v>37.8276070397775</v>
+        <v>-2.99965340863888</v>
       </c>
       <c r="O2" t="n">
-        <v>-27.6068836430546</v>
+        <v>109.5462027530162</v>
       </c>
       <c r="P2" t="n">
-        <v>31.51741480213598</v>
+        <v>-96.00811534006814</v>
       </c>
       <c r="Q2" t="n">
-        <v>-108.2337191342011</v>
+        <v>-34.13689539851219</v>
       </c>
     </row>
     <row r="3">
@@ -580,52 +580,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.79119666451358</v>
+        <v>75.22099124654899</v>
       </c>
       <c r="C3" t="n">
-        <v>148.4665975038173</v>
+        <v>133.5794433399499</v>
       </c>
       <c r="D3" t="n">
-        <v>154.3458859846444</v>
+        <v>-1.534170322000264</v>
       </c>
       <c r="E3" t="n">
-        <v>135.2841442294453</v>
+        <v>112.3816596858409</v>
       </c>
       <c r="F3" t="n">
-        <v>130.503850273529</v>
+        <v>111.3958554880884</v>
       </c>
       <c r="G3" t="n">
-        <v>74.05050466304624</v>
+        <v>46.95042084002367</v>
       </c>
       <c r="H3" t="n">
-        <v>89.72089461204546</v>
+        <v>-161.3380804666868</v>
       </c>
       <c r="I3" t="n">
-        <v>-118.7084311823575</v>
+        <v>121.5142800718783</v>
       </c>
       <c r="J3" t="n">
-        <v>37.93515809373103</v>
+        <v>145.9968261434122</v>
       </c>
       <c r="K3" t="n">
-        <v>13.91263957862907</v>
+        <v>-38.58492410902903</v>
       </c>
       <c r="L3" t="n">
-        <v>28.01554017731154</v>
+        <v>29.24958616580497</v>
       </c>
       <c r="M3" t="n">
-        <v>82.55966914240678</v>
+        <v>31.44494013842654</v>
       </c>
       <c r="N3" t="n">
-        <v>162.3185845815253</v>
+        <v>-9.428903903002441</v>
       </c>
       <c r="O3" t="n">
-        <v>103.405368734128</v>
+        <v>233.0394334650335</v>
       </c>
       <c r="P3" t="n">
-        <v>122.9906233160806</v>
+        <v>105.6884974118702</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.92416949100983</v>
+        <v>11.51578287900639</v>
       </c>
     </row>
     <row r="4">
@@ -635,52 +635,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.67529140896807</v>
+        <v>88.23549971702357</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77397376059099</v>
+        <v>3.215351391753137</v>
       </c>
       <c r="D4" t="n">
-        <v>60.74812115562712</v>
+        <v>144.7178495376136</v>
       </c>
       <c r="E4" t="n">
-        <v>120.3292014321043</v>
+        <v>100.7319168278031</v>
       </c>
       <c r="F4" t="n">
-        <v>-32.48206404531555</v>
+        <v>-15.93972656060855</v>
       </c>
       <c r="G4" t="n">
-        <v>88.28871680045988</v>
+        <v>-237.8717732810707</v>
       </c>
       <c r="H4" t="n">
-        <v>84.61658279580197</v>
+        <v>-92.99807078872685</v>
       </c>
       <c r="I4" t="n">
-        <v>-24.23548770072118</v>
+        <v>37.82167521361355</v>
       </c>
       <c r="J4" t="n">
-        <v>57.30629220202442</v>
+        <v>76.57254405120092</v>
       </c>
       <c r="K4" t="n">
-        <v>-128.3731468886012</v>
+        <v>-65.08970335978174</v>
       </c>
       <c r="L4" t="n">
-        <v>40.31409027655265</v>
+        <v>66.96181895343707</v>
       </c>
       <c r="M4" t="n">
-        <v>40.96873994515929</v>
+        <v>141.7547375880775</v>
       </c>
       <c r="N4" t="n">
-        <v>-35.49402545856927</v>
+        <v>-47.79315863969359</v>
       </c>
       <c r="O4" t="n">
-        <v>72.40618988615292</v>
+        <v>-8.163693604990542</v>
       </c>
       <c r="P4" t="n">
-        <v>-33.14519979144478</v>
+        <v>35.56594983434734</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.4874121760802</v>
+        <v>-73.73153105730944</v>
       </c>
     </row>
     <row r="5">
@@ -690,52 +690,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.06173269170248</v>
+        <v>-6.673571550269675</v>
       </c>
       <c r="C5" t="n">
-        <v>19.91592054759777</v>
+        <v>37.72416089124168</v>
       </c>
       <c r="D5" t="n">
-        <v>-21.94042551031193</v>
+        <v>84.77382562873436</v>
       </c>
       <c r="E5" t="n">
-        <v>161.2044666742514</v>
+        <v>-29.40062004063576</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.656432166652718</v>
+        <v>-57.01569536310356</v>
       </c>
       <c r="G5" t="n">
-        <v>34.7930136080526</v>
+        <v>-13.02251649065291</v>
       </c>
       <c r="H5" t="n">
-        <v>10.78165900293089</v>
+        <v>21.83480262427847</v>
       </c>
       <c r="I5" t="n">
-        <v>28.15113954317662</v>
+        <v>67.81420129165082</v>
       </c>
       <c r="J5" t="n">
-        <v>41.07314175477448</v>
+        <v>32.78273108746898</v>
       </c>
       <c r="K5" t="n">
-        <v>-19.99316712020655</v>
+        <v>-19.35668720318986</v>
       </c>
       <c r="L5" t="n">
-        <v>65.38579172917645</v>
+        <v>86.33716195399495</v>
       </c>
       <c r="M5" t="n">
-        <v>43.49771059739472</v>
+        <v>109.348331733675</v>
       </c>
       <c r="N5" t="n">
-        <v>-31.95800874293787</v>
+        <v>-135.3422414216683</v>
       </c>
       <c r="O5" t="n">
-        <v>94.44812151285694</v>
+        <v>30.6537684703426</v>
       </c>
       <c r="P5" t="n">
-        <v>-38.67758360040436</v>
+        <v>70.61160817892386</v>
       </c>
       <c r="Q5" t="n">
-        <v>67.63952507433538</v>
+        <v>-72.82088593112589</v>
       </c>
     </row>
     <row r="6">
@@ -745,52 +745,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41.5308477033974</v>
+        <v>94.65422856043783</v>
       </c>
       <c r="C6" t="n">
-        <v>27.97600053073756</v>
+        <v>12.20202824564749</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4940257345235947</v>
+        <v>81.41838425632932</v>
       </c>
       <c r="E6" t="n">
-        <v>19.70581726799131</v>
+        <v>39.18205189127188</v>
       </c>
       <c r="F6" t="n">
-        <v>45.36117719172768</v>
+        <v>-9.503472169132124</v>
       </c>
       <c r="G6" t="n">
-        <v>87.36980552053359</v>
+        <v>72.34638246292562</v>
       </c>
       <c r="H6" t="n">
-        <v>1.455983936642513</v>
+        <v>-60.48688249521364</v>
       </c>
       <c r="I6" t="n">
-        <v>-32.16985414399486</v>
+        <v>28.48520829945553</v>
       </c>
       <c r="J6" t="n">
-        <v>-40.61791605821146</v>
+        <v>9.901921870560598</v>
       </c>
       <c r="K6" t="n">
-        <v>-68.94342540634162</v>
+        <v>-37.64315257480677</v>
       </c>
       <c r="L6" t="n">
-        <v>-43.35716856405497</v>
+        <v>-0.05384311706218828</v>
       </c>
       <c r="M6" t="n">
-        <v>-46.17688741342626</v>
+        <v>6.483317359165453</v>
       </c>
       <c r="N6" t="n">
-        <v>98.26972309732825</v>
+        <v>-21.17892842614422</v>
       </c>
       <c r="O6" t="n">
-        <v>67.85844338728775</v>
+        <v>201.9895811668031</v>
       </c>
       <c r="P6" t="n">
-        <v>-43.11091212177193</v>
+        <v>31.8488224313024</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.17491977704074</v>
+        <v>-44.61884874513098</v>
       </c>
     </row>
     <row r="7">
@@ -800,52 +800,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.973834639018789</v>
+        <v>-22.29100682916146</v>
       </c>
       <c r="C7" t="n">
-        <v>48.62448099022431</v>
+        <v>-43.75101830560213</v>
       </c>
       <c r="D7" t="n">
-        <v>-14.17307251043711</v>
+        <v>-19.37102593729472</v>
       </c>
       <c r="E7" t="n">
-        <v>-106.1870752779196</v>
+        <v>-52.2365696537129</v>
       </c>
       <c r="F7" t="n">
-        <v>-45.14928943285337</v>
+        <v>-3.92899214790775</v>
       </c>
       <c r="G7" t="n">
-        <v>-24.44572986667755</v>
+        <v>-43.31499635757314</v>
       </c>
       <c r="H7" t="n">
-        <v>53.15646893528295</v>
+        <v>-56.00256607877834</v>
       </c>
       <c r="I7" t="n">
-        <v>2.379353739373129</v>
+        <v>-38.6094117272437</v>
       </c>
       <c r="J7" t="n">
-        <v>76.9988264046813</v>
+        <v>-2.358600828485462</v>
       </c>
       <c r="K7" t="n">
-        <v>67.4045956963286</v>
+        <v>-16.33338151028195</v>
       </c>
       <c r="L7" t="n">
-        <v>24.96295416771922</v>
+        <v>-31.43385989922756</v>
       </c>
       <c r="M7" t="n">
-        <v>60.96399234997881</v>
+        <v>-54.38264329751418</v>
       </c>
       <c r="N7" t="n">
-        <v>-36.00634419452211</v>
+        <v>-83.05689437029116</v>
       </c>
       <c r="O7" t="n">
-        <v>-61.37860495257711</v>
+        <v>26.88152287500103</v>
       </c>
       <c r="P7" t="n">
-        <v>-11.2022396435796</v>
+        <v>11.89547890259171</v>
       </c>
       <c r="Q7" t="n">
-        <v>-13.05512865614383</v>
+        <v>-44.1695321582892</v>
       </c>
     </row>
     <row r="8">
@@ -855,52 +855,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-32.6710085164983</v>
+        <v>20.92261134519766</v>
       </c>
       <c r="C8" t="n">
-        <v>-21.64865934763347</v>
+        <v>-58.04184263427027</v>
       </c>
       <c r="D8" t="n">
-        <v>-87.89265778776134</v>
+        <v>13.41419811418724</v>
       </c>
       <c r="E8" t="n">
-        <v>52.81629643106841</v>
+        <v>1.97808525531343</v>
       </c>
       <c r="F8" t="n">
-        <v>-23.47531330967739</v>
+        <v>62.2541847351212</v>
       </c>
       <c r="G8" t="n">
-        <v>55.33671801558097</v>
+        <v>-3.027167850845348</v>
       </c>
       <c r="H8" t="n">
-        <v>-28.31400146515956</v>
+        <v>14.01956895860364</v>
       </c>
       <c r="I8" t="n">
-        <v>-29.96271709894317</v>
+        <v>-14.93180418107932</v>
       </c>
       <c r="J8" t="n">
-        <v>35.59326178729506</v>
+        <v>-59.45116110562981</v>
       </c>
       <c r="K8" t="n">
-        <v>73.85334221107631</v>
+        <v>-6.784031384021261</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.012866068752987</v>
+        <v>17.48094726167719</v>
       </c>
       <c r="M8" t="n">
-        <v>-52.4794891595038</v>
+        <v>-55.11880249180683</v>
       </c>
       <c r="N8" t="n">
-        <v>7.04662592293693</v>
+        <v>21.98723244192743</v>
       </c>
       <c r="O8" t="n">
-        <v>40.26856830237702</v>
+        <v>26.28661895507246</v>
       </c>
       <c r="P8" t="n">
-        <v>47.33787642464745</v>
+        <v>53.64198642215802</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.96261794622217</v>
+        <v>-41.48114615322318</v>
       </c>
     </row>
     <row r="9">
@@ -910,52 +910,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.75266515132905</v>
+        <v>153.3480679994844</v>
       </c>
       <c r="C9" t="n">
-        <v>-22.98146404939447</v>
+        <v>-19.4895972080237</v>
       </c>
       <c r="D9" t="n">
-        <v>113.8894516987626</v>
+        <v>-34.34101127335376</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.62237318187296</v>
+        <v>61.54360882237091</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.98866227667708</v>
+        <v>-34.90566145531443</v>
       </c>
       <c r="G9" t="n">
-        <v>78.62351880975112</v>
+        <v>2.854083263497952</v>
       </c>
       <c r="H9" t="n">
-        <v>4.694491792156026</v>
+        <v>60.23451134217215</v>
       </c>
       <c r="I9" t="n">
-        <v>-37.58483695875466</v>
+        <v>-64.84910227700672</v>
       </c>
       <c r="J9" t="n">
-        <v>-47.13276399834137</v>
+        <v>11.02193255803638</v>
       </c>
       <c r="K9" t="n">
-        <v>49.22919414794119</v>
+        <v>-16.98942591893845</v>
       </c>
       <c r="L9" t="n">
-        <v>83.64953165260225</v>
+        <v>58.27652455516972</v>
       </c>
       <c r="M9" t="n">
-        <v>-17.51209319268178</v>
+        <v>11.88874846155823</v>
       </c>
       <c r="N9" t="n">
-        <v>-49.49973918072985</v>
+        <v>25.86312517623105</v>
       </c>
       <c r="O9" t="n">
-        <v>4.344371809753584</v>
+        <v>119.1339061083372</v>
       </c>
       <c r="P9" t="n">
-        <v>4.955794034764134</v>
+        <v>-9.031487401439696</v>
       </c>
       <c r="Q9" t="n">
-        <v>-31.03838248346118</v>
+        <v>-0.08223921109869953</v>
       </c>
     </row>
   </sheetData>
@@ -1066,52 +1066,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.22317658056323</v>
+        <v>-127.998447810127</v>
       </c>
       <c r="C2" t="n">
-        <v>-15.73160501908037</v>
+        <v>-13.24462075804597</v>
       </c>
       <c r="D2" t="n">
-        <v>-28.13597475080565</v>
+        <v>-38.0364871430417</v>
       </c>
       <c r="E2" t="n">
-        <v>-28.74779544370981</v>
+        <v>-15.7394098611159</v>
       </c>
       <c r="F2" t="n">
-        <v>-68.33139348212312</v>
+        <v>-88.69213697797744</v>
       </c>
       <c r="G2" t="n">
-        <v>-18.28906637065012</v>
+        <v>-39.56884546108796</v>
       </c>
       <c r="H2" t="n">
-        <v>-56.6795205584645</v>
+        <v>-49.79178367290474</v>
       </c>
       <c r="I2" t="n">
-        <v>-49.31874937620339</v>
+        <v>-118.1200531102814</v>
       </c>
       <c r="J2" t="n">
-        <v>-76.88099623843161</v>
+        <v>-45.08566519918352</v>
       </c>
       <c r="K2" t="n">
-        <v>-25.87877524355673</v>
+        <v>-116.4499912265326</v>
       </c>
       <c r="L2" t="n">
-        <v>-115.1466268274764</v>
+        <v>-60.17982624192472</v>
       </c>
       <c r="M2" t="n">
-        <v>-115.6006126763812</v>
+        <v>-37.25770787576895</v>
       </c>
       <c r="N2" t="n">
-        <v>-126.0127415712522</v>
+        <v>-49.75933375718379</v>
       </c>
       <c r="O2" t="n">
-        <v>-40.7679937305746</v>
+        <v>-32.71659603409179</v>
       </c>
       <c r="P2" t="n">
-        <v>-28.79559333174729</v>
+        <v>-50.22313307299531</v>
       </c>
       <c r="Q2" t="n">
-        <v>-11.79329490967081</v>
+        <v>-54.75345654995801</v>
       </c>
     </row>
     <row r="3">
@@ -1121,52 +1121,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-14.7663904951061</v>
+        <v>1.196028050588542</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.333159078102595</v>
+        <v>-4.900606757937932</v>
       </c>
       <c r="D3" t="n">
-        <v>8.098268187034112</v>
+        <v>-6.902816942070283</v>
       </c>
       <c r="E3" t="n">
-        <v>41.22706147267863</v>
+        <v>0.3671380459434035</v>
       </c>
       <c r="F3" t="n">
-        <v>9.879979982061437</v>
+        <v>-2.053332819228277</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.166629134597913</v>
+        <v>6.726096723323328</v>
       </c>
       <c r="H3" t="n">
-        <v>-15.80338557107111</v>
+        <v>8.787085341251093</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.949752213181234</v>
+        <v>12.94524066443956</v>
       </c>
       <c r="J3" t="n">
-        <v>15.41655894973637</v>
+        <v>11.78117379047006</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.725548003968038</v>
+        <v>-3.033186078970657</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.131530153526885</v>
+        <v>-22.93304399478099</v>
       </c>
       <c r="M3" t="n">
-        <v>4.338005532855552</v>
+        <v>12.83291421788067</v>
       </c>
       <c r="N3" t="n">
-        <v>4.224887769478359</v>
+        <v>3.452357278750809</v>
       </c>
       <c r="O3" t="n">
-        <v>-10.10144190925646</v>
+        <v>11.33349071444578</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.246218869949874</v>
+        <v>4.346599120324195</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.2502849816387513</v>
+        <v>37.29413711460209</v>
       </c>
     </row>
     <row r="4">
@@ -1176,52 +1176,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-20.17471238383202</v>
+        <v>13.98233916818632</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.60848251000383</v>
+        <v>-0.5572749882732205</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.569726800250901</v>
+        <v>8.532913891207217</v>
       </c>
       <c r="E4" t="n">
-        <v>19.31100342455251</v>
+        <v>0.3808878591632721</v>
       </c>
       <c r="F4" t="n">
-        <v>32.03063567752506</v>
+        <v>11.71110681862302</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1792288249041563</v>
+        <v>-0.2386384605129538</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.0060788953557</v>
+        <v>4.984856240931021</v>
       </c>
       <c r="I4" t="n">
-        <v>-23.54730839366317</v>
+        <v>30.36768245277112</v>
       </c>
       <c r="J4" t="n">
-        <v>6.907276072676041</v>
+        <v>28.74434567757384</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.545464049271288</v>
+        <v>45.41878710386145</v>
       </c>
       <c r="L4" t="n">
-        <v>35.17080894970619</v>
+        <v>18.40853867239261</v>
       </c>
       <c r="M4" t="n">
-        <v>34.77472372359669</v>
+        <v>-2.527555145653615</v>
       </c>
       <c r="N4" t="n">
-        <v>41.90124813865845</v>
+        <v>23.41920398889379</v>
       </c>
       <c r="O4" t="n">
-        <v>2.650323856509381</v>
+        <v>0.522868300602655</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7454422806711223</v>
+        <v>0.9541829235377242</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.856685585658416</v>
+        <v>14.15891660082201</v>
       </c>
     </row>
     <row r="5">
@@ -1231,52 +1231,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5.632610047494276</v>
+        <v>18.87674117358149</v>
       </c>
       <c r="C5" t="n">
-        <v>5.073306081370445</v>
+        <v>-0.8233606055795591</v>
       </c>
       <c r="D5" t="n">
-        <v>2.318905010365284</v>
+        <v>13.24277312267647</v>
       </c>
       <c r="E5" t="n">
-        <v>27.11574063984841</v>
+        <v>-1.993587656508604</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.785968834865688</v>
+        <v>-41.45807026885614</v>
       </c>
       <c r="G5" t="n">
-        <v>5.597243559506163</v>
+        <v>4.718188571524556</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.24899553829197</v>
+        <v>-8.575969753464694</v>
       </c>
       <c r="I5" t="n">
-        <v>19.3203215142434</v>
+        <v>23.68493460486682</v>
       </c>
       <c r="J5" t="n">
-        <v>1.972814164962325</v>
+        <v>-5.225703382435424</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.66826636307953</v>
+        <v>23.08927267881955</v>
       </c>
       <c r="L5" t="n">
-        <v>-17.66403355839685</v>
+        <v>10.47701332382388</v>
       </c>
       <c r="M5" t="n">
-        <v>8.23410673949761</v>
+        <v>0.4698992496295011</v>
       </c>
       <c r="N5" t="n">
-        <v>5.355000581281655</v>
+        <v>-54.56873939730906</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.686731901611372</v>
+        <v>0.3374364048898348</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.646523187606789</v>
+        <v>9.512112723543831</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1.279216112349584</v>
+        <v>5.266417626341713</v>
       </c>
     </row>
     <row r="6">
@@ -1286,52 +1286,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.52257378398942</v>
+        <v>17.28090218352342</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.293588050660478</v>
+        <v>-2.085323153356732</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.883511589431603</v>
+        <v>21.78727137483203</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.31101715925653</v>
+        <v>-2.683468244269958</v>
       </c>
       <c r="F6" t="n">
-        <v>27.73143232855465</v>
+        <v>17.31851376553642</v>
       </c>
       <c r="G6" t="n">
-        <v>3.92238362246255</v>
+        <v>6.809433972504051</v>
       </c>
       <c r="H6" t="n">
-        <v>27.07315410880753</v>
+        <v>1.159005393976025</v>
       </c>
       <c r="I6" t="n">
-        <v>7.579845354214816</v>
+        <v>34.73495155328801</v>
       </c>
       <c r="J6" t="n">
-        <v>8.369870190246207</v>
+        <v>1.926597337312308</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8623638958896991</v>
+        <v>33.39651608024239</v>
       </c>
       <c r="L6" t="n">
-        <v>31.2273489876898</v>
+        <v>23.26646907396438</v>
       </c>
       <c r="M6" t="n">
-        <v>47.76693119925675</v>
+        <v>10.32611241407163</v>
       </c>
       <c r="N6" t="n">
-        <v>11.77492904671442</v>
+        <v>18.57594192136686</v>
       </c>
       <c r="O6" t="n">
-        <v>2.913723907037068</v>
+        <v>4.263021858781322</v>
       </c>
       <c r="P6" t="n">
-        <v>6.452315028150843</v>
+        <v>5.631926209596946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.498022289149202</v>
+        <v>20.08288968102903</v>
       </c>
     </row>
     <row r="7">
@@ -1341,52 +1341,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1895350684449331</v>
+        <v>1.408526550026127</v>
       </c>
       <c r="C7" t="n">
-        <v>5.303106908089068</v>
+        <v>0.3134711834013841</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.032274955982966</v>
+        <v>21.36701662168238</v>
       </c>
       <c r="E7" t="n">
-        <v>42.07225840585351</v>
+        <v>1.29936100612589</v>
       </c>
       <c r="F7" t="n">
-        <v>18.21584181806598</v>
+        <v>-4.296299070465443</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.056491076144701</v>
+        <v>-4.255981960279018</v>
       </c>
       <c r="H7" t="n">
-        <v>-7.407180687816102</v>
+        <v>2.134842824414629</v>
       </c>
       <c r="I7" t="n">
-        <v>1.270400572965198</v>
+        <v>-10.90715965290804</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.703958731880362</v>
+        <v>-12.03884242872273</v>
       </c>
       <c r="K7" t="n">
-        <v>-3.668745338427575</v>
+        <v>11.54897576022301</v>
       </c>
       <c r="L7" t="n">
-        <v>14.2830218002462</v>
+        <v>1.594701824462874</v>
       </c>
       <c r="M7" t="n">
-        <v>21.11574688290739</v>
+        <v>0.4160090714965058</v>
       </c>
       <c r="N7" t="n">
-        <v>-3.831852194483165</v>
+        <v>25.97190269986935</v>
       </c>
       <c r="O7" t="n">
-        <v>-13.20945695531479</v>
+        <v>-3.437613321154406</v>
       </c>
       <c r="P7" t="n">
-        <v>1.05074360071438</v>
+        <v>-9.559249225611788</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.34253172131732</v>
+        <v>27.03015354588549</v>
       </c>
     </row>
     <row r="8">
@@ -1396,52 +1396,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.260509209600359</v>
+        <v>-27.05326118736992</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.382000718619891</v>
+        <v>-10.80320155943826</v>
       </c>
       <c r="D8" t="n">
-        <v>3.78130112505022</v>
+        <v>-12.68735760095907</v>
       </c>
       <c r="E8" t="n">
-        <v>21.06986781870421</v>
+        <v>-12.9009794502433</v>
       </c>
       <c r="F8" t="n">
-        <v>16.5949995473657</v>
+        <v>-23.17525567532278</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4653769970808759</v>
+        <v>-11.17339897143168</v>
       </c>
       <c r="H8" t="n">
-        <v>61.89031801132106</v>
+        <v>-16.21301834161917</v>
       </c>
       <c r="I8" t="n">
-        <v>6.480191063132552</v>
+        <v>-39.9070501110867</v>
       </c>
       <c r="J8" t="n">
-        <v>-8.508918398118018</v>
+        <v>-22.26106751831639</v>
       </c>
       <c r="K8" t="n">
-        <v>3.402316678878962</v>
+        <v>-29.53655213236214</v>
       </c>
       <c r="L8" t="n">
-        <v>18.85159235282087</v>
+        <v>-16.90727901047116</v>
       </c>
       <c r="M8" t="n">
-        <v>15.66280630676385</v>
+        <v>-15.06194083015757</v>
       </c>
       <c r="N8" t="n">
-        <v>27.66977575957771</v>
+        <v>7.068877636078097</v>
       </c>
       <c r="O8" t="n">
-        <v>-5.870041056127998</v>
+        <v>-11.47200074240523</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2857291714098927</v>
+        <v>-12.45130077801336</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.892975492148401</v>
+        <v>-32.96870342988536</v>
       </c>
     </row>
     <row r="9">
@@ -1451,52 +1451,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-10.11172212073268</v>
+        <v>-42.99594042641392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4474366968114667</v>
+        <v>-8.759719138187714</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5394755435309341</v>
+        <v>-7.032725240851717</v>
       </c>
       <c r="E9" t="n">
-        <v>1.647485211750149</v>
+        <v>-10.07492960492604</v>
       </c>
       <c r="F9" t="n">
-        <v>50.36437886505882</v>
+        <v>-30.9129934949453</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9454629242859534</v>
+        <v>-17.88333739094812</v>
       </c>
       <c r="H9" t="n">
-        <v>31.15972924935488</v>
+        <v>-12.78700096921368</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9569742131827992</v>
+        <v>-44.18592984130043</v>
       </c>
       <c r="J9" t="n">
-        <v>13.8856441975925</v>
+        <v>-48.11661802008406</v>
       </c>
       <c r="K9" t="n">
-        <v>8.497934516698271</v>
+        <v>-36.17724841657908</v>
       </c>
       <c r="L9" t="n">
-        <v>15.72310159805902</v>
+        <v>-24.07840578568322</v>
       </c>
       <c r="M9" t="n">
-        <v>29.76391555510745</v>
+        <v>-11.22626956190791</v>
       </c>
       <c r="N9" t="n">
-        <v>25.47283107114066</v>
+        <v>-14.84475042541818</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.5513625046795299</v>
+        <v>-14.76078931711997</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.553228697235668</v>
+        <v>-18.91788212321649</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.633488929666512</v>
+        <v>-56.33451320077568</v>
       </c>
     </row>
     <row r="10">
@@ -1506,52 +1506,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.7404527275438</v>
+        <v>4.34376639734861</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.62707343138537</v>
+        <v>-0.08216185519046257</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.881552495291854</v>
+        <v>27.51966930809088</v>
       </c>
       <c r="E10" t="n">
-        <v>-30.38538725146518</v>
+        <v>-1.02774517118102</v>
       </c>
       <c r="F10" t="n">
-        <v>-23.72647297112098</v>
+        <v>22.75120986584271</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.6733449884399</v>
+        <v>-9.1094527105111</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.244751959241064</v>
+        <v>-17.79567551042662</v>
       </c>
       <c r="I10" t="n">
-        <v>-21.55166123390536</v>
+        <v>0.2825974653921605</v>
       </c>
       <c r="J10" t="n">
-        <v>-27.93458382291587</v>
+        <v>0.7834327302566342</v>
       </c>
       <c r="K10" t="n">
-        <v>-3.442367316501251</v>
+        <v>26.18664819144495</v>
       </c>
       <c r="L10" t="n">
-        <v>-25.15107548695819</v>
+        <v>-0.8755503093065957</v>
       </c>
       <c r="M10" t="n">
-        <v>-52.64329898415428</v>
+        <v>-11.92094089688347</v>
       </c>
       <c r="N10" t="n">
-        <v>-52.90803167744568</v>
+        <v>52.08382870996757</v>
       </c>
       <c r="O10" t="n">
-        <v>-13.98947094963441</v>
+        <v>-3.017770175396616</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.786615809147639</v>
+        <v>-16.64114294975943</v>
       </c>
       <c r="Q10" t="n">
-        <v>-3.827640611653984</v>
+        <v>15.61298984564071</v>
       </c>
     </row>
     <row r="11">
@@ -1561,52 +1561,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-16.472137467844</v>
+        <v>20.77035415984121</v>
       </c>
       <c r="C11" t="n">
-        <v>3.832850697557182</v>
+        <v>-2.879024624228707</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.039758344496246</v>
+        <v>36.29994547764322</v>
       </c>
       <c r="E11" t="n">
-        <v>34.26626948105731</v>
+        <v>-0.8873631098973666</v>
       </c>
       <c r="F11" t="n">
-        <v>21.0033444207016</v>
+        <v>19.80126357269806</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.231693095268603</v>
+        <v>6.618793966736358</v>
       </c>
       <c r="H11" t="n">
-        <v>44.6873617510242</v>
+        <v>-0.6607534308040761</v>
       </c>
       <c r="I11" t="n">
-        <v>6.003446989939657</v>
+        <v>33.31911889487088</v>
       </c>
       <c r="J11" t="n">
-        <v>-4.630389957462555</v>
+        <v>-8.867821629293106</v>
       </c>
       <c r="K11" t="n">
-        <v>2.097126990495225</v>
+        <v>47.62465993460881</v>
       </c>
       <c r="L11" t="n">
-        <v>-9.040840159139812</v>
+        <v>1.660540628638559</v>
       </c>
       <c r="M11" t="n">
-        <v>-14.92979409881754</v>
+        <v>-1.683991734150114</v>
       </c>
       <c r="N11" t="n">
-        <v>20.29504172805566</v>
+        <v>16.83888424209075</v>
       </c>
       <c r="O11" t="n">
-        <v>3.487710327175235</v>
+        <v>-1.955943816108158</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.114491892159426</v>
+        <v>2.377299926757071</v>
       </c>
       <c r="Q11" t="n">
-        <v>-1.083727833475342</v>
+        <v>40.88469372244831</v>
       </c>
     </row>
     <row r="12">
@@ -1616,52 +1616,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.953295254044015</v>
+        <v>-18.98554965794119</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.092441141151035</v>
+        <v>-6.071136175020598</v>
       </c>
       <c r="D12" t="n">
-        <v>-11.25080753674923</v>
+        <v>-25.7765753594569</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.252226969645212</v>
+        <v>-4.896550343889361</v>
       </c>
       <c r="F12" t="n">
-        <v>-31.66116146758167</v>
+        <v>-27.89037108620884</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.470774039240382</v>
+        <v>6.82804715232872</v>
       </c>
       <c r="H12" t="n">
-        <v>-61.61082119857735</v>
+        <v>-8.367066332195918</v>
       </c>
       <c r="I12" t="n">
-        <v>-5.479574024296224</v>
+        <v>-20.8579738565672</v>
       </c>
       <c r="J12" t="n">
-        <v>-42.29354933431461</v>
+        <v>-7.501025856830269</v>
       </c>
       <c r="K12" t="n">
-        <v>-8.447584691026266</v>
+        <v>-43.46928675821065</v>
       </c>
       <c r="L12" t="n">
-        <v>-82.73660612300442</v>
+        <v>-5.416760564690893</v>
       </c>
       <c r="M12" t="n">
-        <v>-36.44264525947766</v>
+        <v>0.4137974483883566</v>
       </c>
       <c r="N12" t="n">
-        <v>-64.22178808537222</v>
+        <v>-44.75044558967494</v>
       </c>
       <c r="O12" t="n">
-        <v>-33.0855440823568</v>
+        <v>6.127993265477288</v>
       </c>
       <c r="P12" t="n">
-        <v>-17.58941329316169</v>
+        <v>5.111572385190744</v>
       </c>
       <c r="Q12" t="n">
-        <v>-4.325363842133648</v>
+        <v>-35.29723185226354</v>
       </c>
     </row>
     <row r="13">
@@ -1671,52 +1671,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.508994984287797</v>
+        <v>10.9494759189984</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.743425854334365</v>
+        <v>-1.715699198107952</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.21747655245171</v>
+        <v>19.42676475681177</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.37004610340455</v>
+        <v>0.3133145854212396</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.598825436738313</v>
+        <v>8.57883093814857</v>
       </c>
       <c r="G13" t="n">
-        <v>3.091670131639754</v>
+        <v>3.426902482129348</v>
       </c>
       <c r="H13" t="n">
-        <v>31.41476642489788</v>
+        <v>-1.70150704450867</v>
       </c>
       <c r="I13" t="n">
-        <v>-14.05091498684614</v>
+        <v>23.14027136340386</v>
       </c>
       <c r="J13" t="n">
-        <v>-7.631723630687944</v>
+        <v>-3.870349597442489</v>
       </c>
       <c r="K13" t="n">
-        <v>-6.666442717692443</v>
+        <v>7.357076099976508</v>
       </c>
       <c r="L13" t="n">
-        <v>-17.26248866169989</v>
+        <v>-9.919826928379507</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.292305360305623</v>
+        <v>-3.874639893272044</v>
       </c>
       <c r="N13" t="n">
-        <v>-11.65063782248681</v>
+        <v>-17.40686450469652</v>
       </c>
       <c r="O13" t="n">
-        <v>23.53907281283249</v>
+        <v>0.3311205998813185</v>
       </c>
       <c r="P13" t="n">
-        <v>4.035072946106779</v>
+        <v>-8.992348865774641</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.134093179610917</v>
+        <v>2.329008746759788</v>
       </c>
     </row>
     <row r="14">
@@ -1726,52 +1726,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.732767257223642</v>
+        <v>-12.48530268625727</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.480846626405555</v>
+        <v>7.163177263724793</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08743161183820559</v>
+        <v>13.36820542188213</v>
       </c>
       <c r="E14" t="n">
-        <v>25.04259338049679</v>
+        <v>0.02925062186938784</v>
       </c>
       <c r="F14" t="n">
-        <v>7.37319633295493</v>
+        <v>-8.252279872804385</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.615252326853915</v>
+        <v>5.164050346963091</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.4591605508563062</v>
+        <v>1.908000608023878</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.512341728987457</v>
+        <v>2.515709867824818</v>
       </c>
       <c r="J14" t="n">
-        <v>-32.72775952126516</v>
+        <v>-1.687484566388612</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.705496984984995</v>
+        <v>3.765019818008536</v>
       </c>
       <c r="L14" t="n">
-        <v>16.863667515076</v>
+        <v>-3.027161903302588</v>
       </c>
       <c r="M14" t="n">
-        <v>5.518323194053308</v>
+        <v>4.383851700025796</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.883828058585504</v>
+        <v>17.36467111882034</v>
       </c>
       <c r="O14" t="n">
-        <v>-5.417168531529424</v>
+        <v>5.779607110507706</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2148936444511804</v>
+        <v>8.931889805851354</v>
       </c>
       <c r="Q14" t="n">
-        <v>-1.2734492759525</v>
+        <v>34.21439471169482</v>
       </c>
     </row>
     <row r="15">
@@ -1781,52 +1781,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11.65328415964342</v>
+        <v>-29.55122985692825</v>
       </c>
       <c r="C15" t="n">
-        <v>2.297691382077672</v>
+        <v>-0.2266315144672668</v>
       </c>
       <c r="D15" t="n">
-        <v>8.205497737382322</v>
+        <v>-6.884255107943808</v>
       </c>
       <c r="E15" t="n">
-        <v>50.80054683242226</v>
+        <v>6.868510505762879</v>
       </c>
       <c r="F15" t="n">
-        <v>18.15931884744271</v>
+        <v>-39.74724665518862</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3258996005063805</v>
+        <v>-3.977876358861614</v>
       </c>
       <c r="H15" t="n">
-        <v>16.04493175464232</v>
+        <v>-10.61620653767492</v>
       </c>
       <c r="I15" t="n">
-        <v>-10.85938920208272</v>
+        <v>-35.87804057192564</v>
       </c>
       <c r="J15" t="n">
-        <v>-3.412263055756078</v>
+        <v>-36.16621903774302</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.140885580934656</v>
+        <v>-26.28992035227049</v>
       </c>
       <c r="L15" t="n">
-        <v>-8.846414841796268</v>
+        <v>-24.6688714600729</v>
       </c>
       <c r="M15" t="n">
-        <v>-9.449315931146646</v>
+        <v>-3.390620859402846</v>
       </c>
       <c r="N15" t="n">
-        <v>13.76436248940775</v>
+        <v>7.978110103020843</v>
       </c>
       <c r="O15" t="n">
-        <v>-8.956889265609853</v>
+        <v>-4.146314844697133</v>
       </c>
       <c r="P15" t="n">
-        <v>1.013813337054772</v>
+        <v>-4.098021504745075</v>
       </c>
       <c r="Q15" t="n">
-        <v>-4.075922720609982</v>
+        <v>-15.54665750168953</v>
       </c>
     </row>
     <row r="16">
@@ -1836,52 +1836,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.197477027169213</v>
+        <v>11.45811658216926</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1691111013990635</v>
+        <v>-1.813111678291446</v>
       </c>
       <c r="D16" t="n">
-        <v>2.724688008841314</v>
+        <v>6.493438760818378</v>
       </c>
       <c r="E16" t="n">
-        <v>17.45053414991751</v>
+        <v>2.041555057927363</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.982032864620787</v>
+        <v>13.5858666044596</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6805651432489601</v>
+        <v>-2.702968167282391</v>
       </c>
       <c r="H16" t="n">
-        <v>19.09961776786847</v>
+        <v>22.03009785597349</v>
       </c>
       <c r="I16" t="n">
-        <v>3.072510250815308</v>
+        <v>13.56026514613111</v>
       </c>
       <c r="J16" t="n">
-        <v>10.08356470897283</v>
+        <v>-0.8929472227896875</v>
       </c>
       <c r="K16" t="n">
-        <v>7.798731775688571</v>
+        <v>-3.815095912963546</v>
       </c>
       <c r="L16" t="n">
-        <v>6.559957391310107</v>
+        <v>-11.16183599686351</v>
       </c>
       <c r="M16" t="n">
-        <v>43.87611543404614</v>
+        <v>3.834427532691223</v>
       </c>
       <c r="N16" t="n">
-        <v>15.32929891558293</v>
+        <v>56.393164253957</v>
       </c>
       <c r="O16" t="n">
-        <v>-3.464602760393249</v>
+        <v>0.7848775396973257</v>
       </c>
       <c r="P16" t="n">
-        <v>3.706681117635834</v>
+        <v>-3.01439673190948</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.018389500282666</v>
+        <v>23.80017118847875</v>
       </c>
     </row>
     <row r="17">
@@ -1891,52 +1891,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.718833301383127</v>
+        <v>26.53178843522181</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6961017373577914</v>
+        <v>-2.464439533873014</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.675299087008137</v>
+        <v>19.61921952040893</v>
       </c>
       <c r="E17" t="n">
-        <v>25.27932074787718</v>
+        <v>-3.13033328193209</v>
       </c>
       <c r="F17" t="n">
-        <v>12.85047615918096</v>
+        <v>-3.715640571726338</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.253042530808651</v>
+        <v>-3.18170255589876</v>
       </c>
       <c r="H17" t="n">
-        <v>-26.77303056497372</v>
+        <v>5.307444728781308</v>
       </c>
       <c r="I17" t="n">
-        <v>3.029463203571941</v>
+        <v>39.39418781991058</v>
       </c>
       <c r="J17" t="n">
-        <v>16.68520397649579</v>
+        <v>-10.5226246795245</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.008062723495791</v>
+        <v>21.26153601454281</v>
       </c>
       <c r="L17" t="n">
-        <v>-25.13954968382554</v>
+        <v>7.369732387320862</v>
       </c>
       <c r="M17" t="n">
-        <v>32.57453783472686</v>
+        <v>1.767143434843915</v>
       </c>
       <c r="N17" t="n">
-        <v>5.18112627351566</v>
+        <v>10.36368265727546</v>
       </c>
       <c r="O17" t="n">
-        <v>-16.5780935539057</v>
+        <v>-0.5255816623647094</v>
       </c>
       <c r="P17" t="n">
-        <v>2.058278568815138</v>
+        <v>1.684512507970657</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.24399227052783</v>
+        <v>23.44754902786664</v>
       </c>
     </row>
     <row r="18">
@@ -1946,52 +1946,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.088026074044654</v>
+        <v>-27.61987825720195</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.493885689409966</v>
+        <v>-6.895103849429849</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2895783347922232</v>
+        <v>-14.57516330275134</v>
       </c>
       <c r="E18" t="n">
-        <v>20.00588173990523</v>
+        <v>-7.003058937216803</v>
       </c>
       <c r="F18" t="n">
-        <v>29.6545781266895</v>
+        <v>-48.55672097270599</v>
       </c>
       <c r="G18" t="n">
-        <v>1.665012618820013</v>
+        <v>-18.81017081705351</v>
       </c>
       <c r="H18" t="n">
-        <v>16.81755354744878</v>
+        <v>-28.13142655879314</v>
       </c>
       <c r="I18" t="n">
-        <v>-4.396526370221578</v>
+        <v>-33.97229225683784</v>
       </c>
       <c r="J18" t="n">
-        <v>5.873559683991769</v>
+        <v>-30.72935723048682</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9585229709742606</v>
+        <v>-45.36398629753589</v>
       </c>
       <c r="L18" t="n">
-        <v>3.729495942523113</v>
+        <v>-26.05618091932622</v>
       </c>
       <c r="M18" t="n">
-        <v>24.93858438627354</v>
+        <v>-20.94891186976006</v>
       </c>
       <c r="N18" t="n">
-        <v>41.10550310417136</v>
+        <v>-7.775920252506922</v>
       </c>
       <c r="O18" t="n">
-        <v>3.552506058274221</v>
+        <v>-18.2090267821769</v>
       </c>
       <c r="P18" t="n">
-        <v>-6.590180763191975</v>
+        <v>-14.00771732209086</v>
       </c>
       <c r="Q18" t="n">
-        <v>-2.573548030768907</v>
+        <v>-68.44249438761821</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.8130699112443</v>
+        <v>324.7430151752463</v>
       </c>
     </row>
     <row r="3">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-100.0186130026926</v>
+        <v>375.9454175292474</v>
       </c>
     </row>
     <row r="4">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.9532213785116</v>
+        <v>121.2536325527655</v>
       </c>
     </row>
     <row r="5">
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.6299423264179</v>
+        <v>226.4624189597561</v>
       </c>
     </row>
     <row r="6">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>386.0319035752633</v>
+        <v>120.5584942790078</v>
       </c>
     </row>
     <row r="7">
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.0155508887848</v>
+        <v>334.8084555588985</v>
       </c>
     </row>
     <row r="8">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.0462498198289</v>
+        <v>170.4048385347557</v>
       </c>
     </row>
     <row r="9">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>360.6249002385877</v>
+        <v>235.7270242462489</v>
       </c>
     </row>
     <row r="10">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>228.3585064485226</v>
+        <v>397.0497240808514</v>
       </c>
     </row>
     <row r="11">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>271.6100796664858</v>
+        <v>280.3367006646022</v>
       </c>
     </row>
     <row r="12">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.4224540009351</v>
+        <v>415.9288174073402</v>
       </c>
     </row>
     <row r="13">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>360.525728423097</v>
+        <v>230.4558861695391</v>
       </c>
     </row>
     <row r="14">
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.2051248540021</v>
+        <v>170.4927139390914</v>
       </c>
     </row>
     <row r="15">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>401.9320631641385</v>
+        <v>389.067230917449</v>
       </c>
     </row>
     <row r="16">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>251.6124330752576</v>
+        <v>159.8382685620766</v>
       </c>
     </row>
     <row r="17">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>149.7985786492206</v>
+        <v>205.6586553513568</v>
       </c>
     </row>
     <row r="18">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.66435703266083</v>
+        <v>386.7651618826397</v>
       </c>
     </row>
   </sheetData>
